--- a/Analytics.xlsx
+++ b/Analytics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kc111\Dev\ftk-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7964134-8B48-4694-A192-26CD7C37CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3928494C-E76A-4357-8EBC-8377304FEDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18480" yWindow="912" windowWidth="21084" windowHeight="15444" activeTab="1" xr2:uid="{33B86A54-F699-4A69-991F-5C59CF7B3663}"/>
+    <workbookView xWindow="468" yWindow="1860" windowWidth="18948" windowHeight="13980" activeTab="2" xr2:uid="{33B86A54-F699-4A69-991F-5C59CF7B3663}"/>
   </bookViews>
   <sheets>
     <sheet name="Unsmooth" sheetId="1" r:id="rId1"/>
     <sheet name="Carino" sheetId="2" r:id="rId2"/>
+    <sheet name="Frongello" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Carino">_xlfn.LAMBDA(_xlpm.p,_xlpm.b,IF(_xlpm.p=_xlpm.b,1,(LN(1+_xlpm.p)-LN(1+_xlpm.b))/(_xlpm.p-_xlpm.b)))</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Smoothed</t>
   </si>
@@ -139,6 +140,24 @@
   <si>
     <t>Active Return (Smoothed)</t>
   </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>https://frongello.com/support/Works/LinkingSydney.pdf</t>
+  </si>
+  <si>
+    <t>Frongello Linking Algorithm</t>
+  </si>
+  <si>
+    <t>Allocation</t>
+  </si>
+  <si>
+    <t>Selection</t>
+  </si>
+  <si>
+    <t>Enter 0 for Frongello, 1 for Reverse Frongello, or 0.5 for Modified Frongello</t>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +168,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +201,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -235,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -276,6 +302,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1874,7 +1902,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2302,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD01E4C-6F4D-44AD-A044-A7961644B033}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2776,4 +2804,449 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA554BA-6626-4F5C-9C94-82D99769631C}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" s="31" customFormat="1" ht="10.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="31" customFormat="1" ht="10.8" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5">
+        <f>1-B4</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="26" cm="1">
+        <f t="array" ref="F9:F10">MMULT(B9:E10,TRANSPOSE(Carino(_xlfn.ANCHORARRAY(B11),)))/Carino(F11,)</f>
+        <v>0.4302090823670669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.5064685176329331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="15" cm="1">
+        <f t="array" ref="B11:E11">_xlfn.BYCOL(B9:E10,_xleta.SUM)</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="F11" s="27">
+        <f>FVSCHEDULE(1,_xlfn.ANCHORARRAY(B11))-1</f>
+        <v>0.93667759999999989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20" t="str" cm="1">
+        <f t="array" ref="B14:F14">B8:F8</f>
+        <v>Q1</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <v>Q3</v>
+      </c>
+      <c r="E14" s="20" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="F14" s="28" t="str">
+        <v>YTD</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="str" cm="1">
+        <f t="array" ref="A15:A16">A9:A10</f>
+        <v>Allocation</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="26" cm="1">
+        <f t="array" ref="F15:F16">MMULT(B15:E16,TRANSPOSE(Carino(_xlfn.ANCHORARRAY(B17),)))/Carino(F17,)</f>
+        <v>0.22224676967894347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="str">
+        <v>Selection</v>
+      </c>
+      <c r="B16" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.26835003032105698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="15" cm="1">
+        <f t="array" ref="B17:E17">_xlfn.BYCOL(B15:E16,_xleta.SUM)</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="27">
+        <f>FVSCHEDULE(1,_xlfn.ANCHORARRAY(B17))-1</f>
+        <v>0.4905968000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="str" cm="1">
+        <f t="array" ref="B20:F20">B8:F8</f>
+        <v>Q1</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="D20" s="20" t="str">
+        <v>Q3</v>
+      </c>
+      <c r="E20" s="20" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="F20" s="28" t="str">
+        <v>YTD</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="str" cm="1">
+        <f t="array" ref="A21:A22">A9:A10</f>
+        <v>Allocation</v>
+      </c>
+      <c r="B21" s="12" cm="1">
+        <f t="array" ref="B21:E22">B9:E10-B15:E16</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="str">
+        <v>Selection</v>
+      </c>
+      <c r="B22" s="12">
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="12">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="15" cm="1">
+        <f t="array" ref="B23:E23">_xlfn.BYCOL(B21:E22,_xleta.SUM)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="15">
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="E23" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F23" s="22">
+        <f>F11-F17</f>
+        <v>0.44608079999999939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="str" cm="1">
+        <f t="array" ref="B26:F26">B8:F8</f>
+        <v>Q1</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <v>Q2</v>
+      </c>
+      <c r="D26" s="20" t="str">
+        <v>Q3</v>
+      </c>
+      <c r="E26" s="20" t="str">
+        <v>Q4</v>
+      </c>
+      <c r="F26" s="28" t="str">
+        <v>YTD</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="str" cm="1">
+        <f t="array" ref="A27:A28">A9:A10</f>
+        <v>Allocation</v>
+      </c>
+      <c r="B27" s="17" cm="1">
+        <f t="array" ref="B27:B28">B21:B22</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="C27" s="17" cm="1">
+        <f t="array" ref="C27:C28">C21:C22*($B$4*FVSCHEDULE(1,$B11:B11)+$B$5*FVSCHEDULE(1,$B17:B17))+($B$4*C17+$B$5*C11)*_xlfn.BYROW($B27:B28,_xleta.SUM)</f>
+        <v>3.0100000000000009E-2</v>
+      </c>
+      <c r="D27" s="17" cm="1">
+        <f t="array" ref="D27:D28">D21:D22*($B$4*FVSCHEDULE(1,$B11:C11)+$B$5*FVSCHEDULE(1,$B17:C17))+($B$4*D17+$B$5*D11)*_xlfn.BYROW($B27:C28,_xleta.SUM)</f>
+        <v>2.7362500000000005E-2</v>
+      </c>
+      <c r="E27" s="17" cm="1">
+        <f t="array" ref="E27:E28">E21:E22*($B$4*FVSCHEDULE(1,$B11:D11)+$B$5*FVSCHEDULE(1,$B17:D17))+($B$4*E17+$B$5*E11)*_xlfn.BYROW($B27:D28,_xleta.SUM)</f>
+        <v>9.1116637500000028E-2</v>
+      </c>
+      <c r="F27" s="26" cm="1">
+        <f t="array" ref="F27:F28">_xlfn.BYROW(B27:E28,_xleta.SUM)</f>
+        <v>0.20857913750000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="str">
+        <v>Selection</v>
+      </c>
+      <c r="B28" s="17">
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3.9400000000000004E-2</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.10332950000000002</v>
+      </c>
+      <c r="E28" s="17">
+        <v>5.4772162500000013E-2</v>
+      </c>
+      <c r="F28" s="26">
+        <v>0.23750166250000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="18" cm="1">
+        <f t="array" ref="B29:E29">_xlfn.BYCOL(B27:E28,_xleta.SUM)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="18">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.13069200000000003</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0.14588880000000004</v>
+      </c>
+      <c r="F29" s="22">
+        <f>SUM(_xlfn.ANCHORARRAY(F27))</f>
+        <v>0.44608080000000011</v>
+      </c>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>